--- a/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/LogBook.xlsx
+++ b/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/LogBook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\aspnet-core 7.0\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$13:$L$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$13:$M$13</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>---------------</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -344,43 +346,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,86 +702,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J18" sqref="J18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="19.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="21" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J3" s="17" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="K3" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -787,10 +799,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -805,8 +818,9 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -821,8 +835,9 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -837,64 +852,69 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="26"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="10" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -925,14 +945,17 @@
       <c r="J13" s="7">
         <v>10</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="7">
         <v>11</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -941,8 +964,8 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6">
@@ -951,43 +974,49 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="J17" s="12" t="s">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="17" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="16"/>
-      <c r="J18" s="18" t="s">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="15"/>
+      <c r="J18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A13:L13"/>
-  <mergeCells count="14">
+  <autoFilter ref="A13:M13"/>
+  <mergeCells count="16">
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
